--- a/biology/Botanique/Cecropia/Cecropia.xlsx
+++ b/biology/Botanique/Cecropia/Cecropia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecropia est un genre de plantes à fleurs de la famille des Urticaceae (anciennement des Moraceae, ou des Cecropiaceae). Il regroupe environ 80 espèce d'arbres dioïques. L'espèce type est Cecropia peltata L..
 Présents sur l'écozone néotropicale, il s'agit principalement d'espèces pionnières que l'on retrouve donc fréquemment dans les forêts secondaires. En Afrique, il existe un genre vicariant appartenant à la même famille : Musanga.
@@ -513,7 +525,9 @@
           <t>Symbiose avec les fourmis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines de ces espèces vivent en symbiose avec diverses espèces de fourmis principalement du genre Azteca sp. (dans ce cas obligatoire pour les fourmis) mais aussi Gnamptogenys (en), Heteroponera (en), Pachycondyla, Pseudomyrmex (en), Crematogaster, Solenopsis, Pheidole, Wasmannia, Cephalotes, Procryptocerus (en), Camponotus et Myrmelachista (en).
 En Guyane, l'aï peut grimper dans l'arbre nommé bois-canon sans être tourmenté par les fourmis.
@@ -550,7 +564,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cecropia adenopus Mart. ex Miq. ;
@@ -594,9 +610,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (28 juin 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 juin 2022) :
 Cecropia albicans Trécul
 Cecropia andina Cuatrec.
 Cecropia angulata I.W.Bailey
